--- a/01_dados/cobertura sb.xlsx
+++ b/01_dados/cobertura sb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\saude_bucal\01_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED0A5C0-2835-4C0F-AABB-52DD946AAFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C86A4B-E553-49DC-9EC2-D5DD632E082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cobertura" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="54">
   <si>
     <t>ibge</t>
   </si>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,6 +308,7 @@
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15359,8 +15360,8 @@
   </sheetPr>
   <dimension ref="A1:H1107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="A581" sqref="A581:A600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30449,8 +30450,8 @@
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A581" s="4" t="s">
-        <v>39</v>
+      <c r="A581" s="27">
+        <v>4100000</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>43</v>
@@ -30475,8 +30476,8 @@
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A582" s="4" t="s">
-        <v>39</v>
+      <c r="A582" s="27">
+        <v>4100000</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>43</v>
@@ -30501,8 +30502,8 @@
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A583" s="4" t="s">
-        <v>39</v>
+      <c r="A583" s="27">
+        <v>4100000</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>43</v>
@@ -30527,8 +30528,8 @@
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A584" s="4" t="s">
-        <v>39</v>
+      <c r="A584" s="27">
+        <v>4100000</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>43</v>
@@ -30553,8 +30554,8 @@
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A585" s="4" t="s">
-        <v>39</v>
+      <c r="A585" s="27">
+        <v>4100000</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>43</v>
@@ -30579,8 +30580,8 @@
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A586" s="4" t="s">
-        <v>39</v>
+      <c r="A586" s="27">
+        <v>4100000</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>43</v>
@@ -30605,8 +30606,8 @@
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A587" s="4" t="s">
-        <v>39</v>
+      <c r="A587" s="27">
+        <v>4100000</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>43</v>
@@ -30631,8 +30632,8 @@
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A588" s="4" t="s">
-        <v>39</v>
+      <c r="A588" s="27">
+        <v>4100000</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>43</v>
@@ -30657,8 +30658,8 @@
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A589" s="4" t="s">
-        <v>39</v>
+      <c r="A589" s="27">
+        <v>4100000</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>43</v>
@@ -30683,8 +30684,8 @@
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A590" s="4" t="s">
-        <v>39</v>
+      <c r="A590" s="27">
+        <v>4100000</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>43</v>
@@ -30709,8 +30710,8 @@
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A591" s="4" t="s">
-        <v>39</v>
+      <c r="A591" s="27">
+        <v>4100000</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>43</v>
@@ -30735,8 +30736,8 @@
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A592" s="4" t="s">
-        <v>39</v>
+      <c r="A592" s="27">
+        <v>4100000</v>
       </c>
       <c r="B592" s="3" t="s">
         <v>43</v>
@@ -30761,8 +30762,8 @@
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A593" s="4" t="s">
-        <v>39</v>
+      <c r="A593" s="27">
+        <v>4100000</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>43</v>
@@ -30787,8 +30788,8 @@
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A594" s="4" t="s">
-        <v>39</v>
+      <c r="A594" s="27">
+        <v>4100000</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>43</v>
@@ -30813,8 +30814,8 @@
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A595" s="4" t="s">
-        <v>39</v>
+      <c r="A595" s="27">
+        <v>4100000</v>
       </c>
       <c r="B595" s="3" t="s">
         <v>43</v>
@@ -30839,8 +30840,8 @@
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A596" s="4" t="s">
-        <v>39</v>
+      <c r="A596" s="27">
+        <v>4100000</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>43</v>
@@ -30865,8 +30866,8 @@
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A597" s="4" t="s">
-        <v>39</v>
+      <c r="A597" s="27">
+        <v>4100000</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>43</v>
@@ -30891,8 +30892,8 @@
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A598" s="4" t="s">
-        <v>39</v>
+      <c r="A598" s="27">
+        <v>4100000</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>43</v>
@@ -30917,8 +30918,8 @@
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A599" s="4" t="s">
-        <v>39</v>
+      <c r="A599" s="27">
+        <v>4100000</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>43</v>
@@ -30943,8 +30944,8 @@
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A600" s="4" t="s">
-        <v>39</v>
+      <c r="A600" s="27">
+        <v>4100000</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>43</v>
@@ -30969,8 +30970,8 @@
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A601" s="4" t="s">
-        <v>39</v>
+      <c r="A601" s="27">
+        <v>5200000</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>45</v>
@@ -30995,8 +30996,8 @@
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A602" s="4" t="s">
-        <v>39</v>
+      <c r="A602" s="27">
+        <v>5200000</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>45</v>
@@ -31021,8 +31022,8 @@
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A603" s="4" t="s">
-        <v>39</v>
+      <c r="A603" s="27">
+        <v>5200000</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>45</v>
@@ -31047,8 +31048,8 @@
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A604" s="4" t="s">
-        <v>39</v>
+      <c r="A604" s="27">
+        <v>5200000</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>45</v>
@@ -31073,8 +31074,8 @@
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A605" s="4" t="s">
-        <v>39</v>
+      <c r="A605" s="27">
+        <v>5200000</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>45</v>
@@ -31099,8 +31100,8 @@
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A606" s="4" t="s">
-        <v>39</v>
+      <c r="A606" s="27">
+        <v>5200000</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>45</v>
@@ -31125,8 +31126,8 @@
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A607" s="4" t="s">
-        <v>39</v>
+      <c r="A607" s="27">
+        <v>5200000</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>45</v>
@@ -31151,8 +31152,8 @@
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A608" s="4" t="s">
-        <v>39</v>
+      <c r="A608" s="27">
+        <v>5200000</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>45</v>
@@ -31177,8 +31178,8 @@
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A609" s="4" t="s">
-        <v>39</v>
+      <c r="A609" s="27">
+        <v>5200000</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>45</v>
@@ -31203,8 +31204,8 @@
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A610" s="4" t="s">
-        <v>39</v>
+      <c r="A610" s="27">
+        <v>5200000</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>45</v>
@@ -31229,8 +31230,8 @@
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A611" s="4" t="s">
-        <v>39</v>
+      <c r="A611" s="27">
+        <v>5200000</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>45</v>
@@ -31255,8 +31256,8 @@
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A612" s="4" t="s">
-        <v>39</v>
+      <c r="A612" s="27">
+        <v>5200000</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>45</v>
@@ -31281,8 +31282,8 @@
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A613" s="4" t="s">
-        <v>39</v>
+      <c r="A613" s="27">
+        <v>5200000</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>45</v>
@@ -31307,8 +31308,8 @@
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A614" s="4" t="s">
-        <v>39</v>
+      <c r="A614" s="27">
+        <v>5200000</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>45</v>
@@ -31333,8 +31334,8 @@
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A615" s="4" t="s">
-        <v>39</v>
+      <c r="A615" s="27">
+        <v>5200000</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>45</v>
@@ -31359,8 +31360,8 @@
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A616" s="4" t="s">
-        <v>39</v>
+      <c r="A616" s="27">
+        <v>5200000</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>45</v>
@@ -31385,8 +31386,8 @@
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A617" s="4" t="s">
-        <v>39</v>
+      <c r="A617" s="27">
+        <v>5200000</v>
       </c>
       <c r="B617" s="3" t="s">
         <v>45</v>
@@ -31411,8 +31412,8 @@
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A618" s="4" t="s">
-        <v>39</v>
+      <c r="A618" s="27">
+        <v>5200000</v>
       </c>
       <c r="B618" s="3" t="s">
         <v>45</v>
@@ -31437,8 +31438,8 @@
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A619" s="4" t="s">
-        <v>39</v>
+      <c r="A619" s="27">
+        <v>5200000</v>
       </c>
       <c r="B619" s="3" t="s">
         <v>45</v>
@@ -31463,8 +31464,8 @@
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A620" s="4" t="s">
-        <v>39</v>
+      <c r="A620" s="27">
+        <v>5200000</v>
       </c>
       <c r="B620" s="3" t="s">
         <v>45</v>

--- a/01_dados/cobertura sb.xlsx
+++ b/01_dados/cobertura sb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/saude_bucal/01_dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{46C86A4B-E553-49DC-9EC2-D5DD632E082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9117F91-F6CE-4AEC-90B0-6A60C90C5772}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{46C86A4B-E553-49DC-9EC2-D5DD632E082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E13B01-7240-4231-9551-9C2FC7ECB118}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15364,7 +15364,7 @@
   <dimension ref="A1:H1107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A611" workbookViewId="0">
-      <selection activeCell="A620" sqref="A620"/>
+      <selection activeCell="A621" sqref="A621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/01_dados/cobertura sb.xlsx
+++ b/01_dados/cobertura sb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/saude_bucal/01_dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{46C86A4B-E553-49DC-9EC2-D5DD632E082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E13B01-7240-4231-9551-9C2FC7ECB118}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{46C86A4B-E553-49DC-9EC2-D5DD632E082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FFBDE3-1638-4CE1-B0E2-972DFCBB685F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cobertura" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="54">
   <si>
     <t>ibge</t>
   </si>
@@ -308,9 +308,11 @@
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,11 +532,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:A125"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="28" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
@@ -545,7 +549,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -571,7 +575,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>110020</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -597,7 +601,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>110020</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -623,7 +627,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>110020</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -649,7 +653,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>110020</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3275,8 +3279,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>39</v>
+      <c r="A106" s="4">
+        <v>1300000</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>40</v>
@@ -3301,8 +3305,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>39</v>
+      <c r="A107" s="4">
+        <v>1300000</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>40</v>
@@ -3327,8 +3331,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>39</v>
+      <c r="A108" s="4">
+        <v>1300000</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>40</v>
@@ -3353,8 +3357,8 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>39</v>
+      <c r="A109" s="4">
+        <v>1300000</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>40</v>
@@ -3379,8 +3383,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>39</v>
+      <c r="A110" s="4">
+        <v>2900000</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>41</v>
@@ -3405,8 +3409,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>39</v>
+      <c r="A111" s="4">
+        <v>2900000</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>41</v>
@@ -3431,8 +3435,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>39</v>
+      <c r="A112" s="4">
+        <v>2900000</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>41</v>
@@ -3457,8 +3461,8 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>39</v>
+      <c r="A113" s="4">
+        <v>2900000</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>41</v>
@@ -3483,8 +3487,8 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>39</v>
+      <c r="A114" s="4">
+        <v>3500000</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>42</v>
@@ -3509,8 +3513,8 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>39</v>
+      <c r="A115" s="4">
+        <v>3500000</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>42</v>
@@ -3535,8 +3539,8 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>39</v>
+      <c r="A116" s="4">
+        <v>3500000</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>42</v>
@@ -3561,8 +3565,8 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>39</v>
+      <c r="A117" s="4">
+        <v>3500000</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>42</v>
@@ -3587,8 +3591,8 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>39</v>
+      <c r="A118" s="27">
+        <v>4100000</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>43</v>
@@ -3613,8 +3617,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>39</v>
+      <c r="A119" s="27">
+        <v>4100000</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>43</v>
@@ -3639,8 +3643,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>39</v>
+      <c r="A120" s="27">
+        <v>4100000</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>43</v>
@@ -3665,8 +3669,8 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>39</v>
+      <c r="A121" s="27">
+        <v>4100000</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>43</v>
@@ -3691,8 +3695,8 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>39</v>
+      <c r="A122" s="27">
+        <v>5200000</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>44</v>
@@ -3717,8 +3721,8 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>39</v>
+      <c r="A123" s="27">
+        <v>5200000</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>44</v>
@@ -3743,8 +3747,8 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>39</v>
+      <c r="A124" s="27">
+        <v>5200000</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>44</v>
@@ -3769,8 +3773,8 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>39</v>
+      <c r="A125" s="27">
+        <v>5200000</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>44</v>
@@ -3795,8 +3799,8 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>39</v>
+      <c r="A126" s="27">
+        <v>5200000</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>45</v>
@@ -3821,8 +3825,8 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>39</v>
+      <c r="A127" s="27">
+        <v>5200000</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>45</v>
@@ -3847,8 +3851,8 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>39</v>
+      <c r="A128" s="27">
+        <v>5200000</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>45</v>
@@ -3873,8 +3877,8 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>39</v>
+      <c r="A129" s="27">
+        <v>5200000</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>45</v>
@@ -13883,1465 +13887,1465 @@
       </c>
     </row>
     <row r="514" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="1"/>
+      <c r="A514" s="4"/>
     </row>
     <row r="515" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="1"/>
+      <c r="A515" s="4"/>
     </row>
     <row r="516" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="1"/>
+      <c r="A516" s="4"/>
     </row>
     <row r="517" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="1"/>
+      <c r="A517" s="4"/>
     </row>
     <row r="518" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="1"/>
+      <c r="A518" s="4"/>
     </row>
     <row r="519" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="1"/>
+      <c r="A519" s="4"/>
     </row>
     <row r="520" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="1"/>
+      <c r="A520" s="4"/>
     </row>
     <row r="521" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="1"/>
+      <c r="A521" s="4"/>
     </row>
     <row r="522" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="1"/>
+      <c r="A522" s="4"/>
     </row>
     <row r="523" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="1"/>
+      <c r="A523" s="4"/>
     </row>
     <row r="524" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="1"/>
+      <c r="A524" s="4"/>
     </row>
     <row r="525" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="1"/>
+      <c r="A525" s="4"/>
     </row>
     <row r="526" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="1"/>
+      <c r="A526" s="4"/>
     </row>
     <row r="527" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="1"/>
+      <c r="A527" s="4"/>
     </row>
     <row r="528" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="1"/>
+      <c r="A528" s="4"/>
     </row>
     <row r="529" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="1"/>
+      <c r="A529" s="4"/>
     </row>
     <row r="530" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="1"/>
+      <c r="A530" s="4"/>
     </row>
     <row r="531" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="1"/>
+      <c r="A531" s="4"/>
     </row>
     <row r="532" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="1"/>
+      <c r="A532" s="4"/>
     </row>
     <row r="533" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="1"/>
+      <c r="A533" s="4"/>
     </row>
     <row r="534" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="1"/>
+      <c r="A534" s="4"/>
     </row>
     <row r="535" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="1"/>
+      <c r="A535" s="4"/>
     </row>
     <row r="536" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="1"/>
+      <c r="A536" s="4"/>
     </row>
     <row r="537" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="1"/>
+      <c r="A537" s="4"/>
     </row>
     <row r="538" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="1"/>
+      <c r="A538" s="4"/>
     </row>
     <row r="539" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="1"/>
+      <c r="A539" s="4"/>
     </row>
     <row r="540" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="1"/>
+      <c r="A540" s="4"/>
     </row>
     <row r="541" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="1"/>
+      <c r="A541" s="4"/>
     </row>
     <row r="542" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="1"/>
+      <c r="A542" s="4"/>
     </row>
     <row r="543" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="1"/>
+      <c r="A543" s="4"/>
     </row>
     <row r="544" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="1"/>
+      <c r="A544" s="4"/>
     </row>
     <row r="545" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="1"/>
+      <c r="A545" s="4"/>
     </row>
     <row r="546" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="1"/>
+      <c r="A546" s="4"/>
     </row>
     <row r="547" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="1"/>
+      <c r="A547" s="4"/>
     </row>
     <row r="548" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="1"/>
+      <c r="A548" s="4"/>
     </row>
     <row r="549" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="1"/>
+      <c r="A549" s="4"/>
     </row>
     <row r="550" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="1"/>
+      <c r="A550" s="4"/>
     </row>
     <row r="551" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="1"/>
+      <c r="A551" s="4"/>
     </row>
     <row r="552" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="1"/>
+      <c r="A552" s="4"/>
     </row>
     <row r="553" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="1"/>
+      <c r="A553" s="4"/>
     </row>
     <row r="554" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="1"/>
+      <c r="A554" s="4"/>
     </row>
     <row r="555" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="1"/>
+      <c r="A555" s="4"/>
     </row>
     <row r="556" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="1"/>
+      <c r="A556" s="4"/>
     </row>
     <row r="557" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="1"/>
+      <c r="A557" s="4"/>
     </row>
     <row r="558" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="1"/>
+      <c r="A558" s="4"/>
     </row>
     <row r="559" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="1"/>
+      <c r="A559" s="4"/>
     </row>
     <row r="560" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="1"/>
+      <c r="A560" s="4"/>
     </row>
     <row r="561" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="1"/>
+      <c r="A561" s="4"/>
     </row>
     <row r="562" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="1"/>
+      <c r="A562" s="4"/>
     </row>
     <row r="563" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="1"/>
+      <c r="A563" s="4"/>
     </row>
     <row r="564" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="1"/>
+      <c r="A564" s="4"/>
     </row>
     <row r="565" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="1"/>
+      <c r="A565" s="4"/>
     </row>
     <row r="566" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="1"/>
+      <c r="A566" s="4"/>
     </row>
     <row r="567" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="1"/>
+      <c r="A567" s="4"/>
     </row>
     <row r="568" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="1"/>
+      <c r="A568" s="4"/>
     </row>
     <row r="569" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="1"/>
+      <c r="A569" s="4"/>
     </row>
     <row r="570" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="1"/>
+      <c r="A570" s="4"/>
     </row>
     <row r="571" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="1"/>
+      <c r="A571" s="4"/>
     </row>
     <row r="572" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="1"/>
+      <c r="A572" s="4"/>
     </row>
     <row r="573" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="1"/>
+      <c r="A573" s="4"/>
     </row>
     <row r="574" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="1"/>
+      <c r="A574" s="4"/>
     </row>
     <row r="575" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="1"/>
+      <c r="A575" s="4"/>
     </row>
     <row r="576" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="1"/>
+      <c r="A576" s="4"/>
     </row>
     <row r="577" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="1"/>
+      <c r="A577" s="4"/>
     </row>
     <row r="578" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="1"/>
+      <c r="A578" s="4"/>
     </row>
     <row r="579" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="1"/>
+      <c r="A579" s="4"/>
     </row>
     <row r="580" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="1"/>
+      <c r="A580" s="4"/>
     </row>
     <row r="581" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="1"/>
+      <c r="A581" s="4"/>
     </row>
     <row r="582" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="1"/>
+      <c r="A582" s="4"/>
     </row>
     <row r="583" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="1"/>
+      <c r="A583" s="4"/>
     </row>
     <row r="584" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="1"/>
+      <c r="A584" s="4"/>
     </row>
     <row r="585" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="1"/>
+      <c r="A585" s="4"/>
     </row>
     <row r="586" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="1"/>
+      <c r="A586" s="4"/>
     </row>
     <row r="587" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="1"/>
+      <c r="A587" s="4"/>
     </row>
     <row r="588" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="1"/>
+      <c r="A588" s="4"/>
     </row>
     <row r="589" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="1"/>
+      <c r="A589" s="4"/>
     </row>
     <row r="590" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="1"/>
+      <c r="A590" s="4"/>
     </row>
     <row r="591" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="1"/>
+      <c r="A591" s="4"/>
     </row>
     <row r="592" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="1"/>
+      <c r="A592" s="4"/>
     </row>
     <row r="593" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="1"/>
+      <c r="A593" s="4"/>
     </row>
     <row r="594" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="1"/>
+      <c r="A594" s="4"/>
     </row>
     <row r="595" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="1"/>
+      <c r="A595" s="4"/>
     </row>
     <row r="596" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="1"/>
+      <c r="A596" s="4"/>
     </row>
     <row r="597" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="1"/>
+      <c r="A597" s="4"/>
     </row>
     <row r="598" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="1"/>
+      <c r="A598" s="4"/>
     </row>
     <row r="599" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="1"/>
+      <c r="A599" s="4"/>
     </row>
     <row r="600" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="1"/>
+      <c r="A600" s="4"/>
     </row>
     <row r="601" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="1"/>
+      <c r="A601" s="4"/>
     </row>
     <row r="602" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="1"/>
+      <c r="A602" s="4"/>
     </row>
     <row r="603" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="1"/>
+      <c r="A603" s="4"/>
     </row>
     <row r="604" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="1"/>
+      <c r="A604" s="4"/>
     </row>
     <row r="605" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="1"/>
+      <c r="A605" s="4"/>
     </row>
     <row r="606" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="1"/>
+      <c r="A606" s="4"/>
     </row>
     <row r="607" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="1"/>
+      <c r="A607" s="4"/>
     </row>
     <row r="608" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="1"/>
+      <c r="A608" s="4"/>
     </row>
     <row r="609" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="1"/>
+      <c r="A609" s="4"/>
     </row>
     <row r="610" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="1"/>
+      <c r="A610" s="4"/>
     </row>
     <row r="611" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="1"/>
+      <c r="A611" s="4"/>
     </row>
     <row r="612" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="1"/>
+      <c r="A612" s="4"/>
     </row>
     <row r="613" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="1"/>
+      <c r="A613" s="4"/>
     </row>
     <row r="614" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="1"/>
+      <c r="A614" s="4"/>
     </row>
     <row r="615" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="1"/>
+      <c r="A615" s="4"/>
     </row>
     <row r="616" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="1"/>
+      <c r="A616" s="4"/>
     </row>
     <row r="617" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="1"/>
+      <c r="A617" s="4"/>
     </row>
     <row r="618" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="1"/>
+      <c r="A618" s="4"/>
     </row>
     <row r="619" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="1"/>
+      <c r="A619" s="4"/>
     </row>
     <row r="620" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="1"/>
+      <c r="A620" s="4"/>
     </row>
     <row r="621" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A621" s="1"/>
+      <c r="A621" s="4"/>
     </row>
     <row r="622" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="1"/>
+      <c r="A622" s="4"/>
     </row>
     <row r="623" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="1"/>
+      <c r="A623" s="4"/>
     </row>
     <row r="624" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="1"/>
+      <c r="A624" s="4"/>
     </row>
     <row r="625" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A625" s="1"/>
+      <c r="A625" s="4"/>
     </row>
     <row r="626" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A626" s="1"/>
+      <c r="A626" s="4"/>
     </row>
     <row r="627" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="1"/>
+      <c r="A627" s="4"/>
     </row>
     <row r="628" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="1"/>
+      <c r="A628" s="4"/>
     </row>
     <row r="629" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="1"/>
+      <c r="A629" s="4"/>
     </row>
     <row r="630" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A630" s="1"/>
+      <c r="A630" s="4"/>
     </row>
     <row r="631" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="1"/>
+      <c r="A631" s="4"/>
     </row>
     <row r="632" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A632" s="1"/>
+      <c r="A632" s="4"/>
     </row>
     <row r="633" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A633" s="1"/>
+      <c r="A633" s="4"/>
     </row>
     <row r="634" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A634" s="1"/>
+      <c r="A634" s="4"/>
     </row>
     <row r="635" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="1"/>
+      <c r="A635" s="4"/>
     </row>
     <row r="636" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A636" s="1"/>
+      <c r="A636" s="4"/>
     </row>
     <row r="637" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A637" s="1"/>
+      <c r="A637" s="4"/>
     </row>
     <row r="638" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="1"/>
+      <c r="A638" s="4"/>
     </row>
     <row r="639" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="1"/>
+      <c r="A639" s="4"/>
     </row>
     <row r="640" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="1"/>
+      <c r="A640" s="4"/>
     </row>
     <row r="641" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="1"/>
+      <c r="A641" s="4"/>
     </row>
     <row r="642" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A642" s="1"/>
+      <c r="A642" s="4"/>
     </row>
     <row r="643" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="1"/>
+      <c r="A643" s="4"/>
     </row>
     <row r="644" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A644" s="1"/>
+      <c r="A644" s="4"/>
     </row>
     <row r="645" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="1"/>
+      <c r="A645" s="4"/>
     </row>
     <row r="646" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A646" s="1"/>
+      <c r="A646" s="4"/>
     </row>
     <row r="647" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="1"/>
+      <c r="A647" s="4"/>
     </row>
     <row r="648" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="1"/>
+      <c r="A648" s="4"/>
     </row>
     <row r="649" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="1"/>
+      <c r="A649" s="4"/>
     </row>
     <row r="650" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A650" s="1"/>
+      <c r="A650" s="4"/>
     </row>
     <row r="651" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="1"/>
+      <c r="A651" s="4"/>
     </row>
     <row r="652" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="1"/>
+      <c r="A652" s="4"/>
     </row>
     <row r="653" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="1"/>
+      <c r="A653" s="4"/>
     </row>
     <row r="654" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="1"/>
+      <c r="A654" s="4"/>
     </row>
     <row r="655" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="1"/>
+      <c r="A655" s="4"/>
     </row>
     <row r="656" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="1"/>
+      <c r="A656" s="4"/>
     </row>
     <row r="657" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="1"/>
+      <c r="A657" s="4"/>
     </row>
     <row r="658" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="1"/>
+      <c r="A658" s="4"/>
     </row>
     <row r="659" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="1"/>
+      <c r="A659" s="4"/>
     </row>
     <row r="660" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="1"/>
+      <c r="A660" s="4"/>
     </row>
     <row r="661" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="1"/>
+      <c r="A661" s="4"/>
     </row>
     <row r="662" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A662" s="1"/>
+      <c r="A662" s="4"/>
     </row>
     <row r="663" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="1"/>
+      <c r="A663" s="4"/>
     </row>
     <row r="664" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="1"/>
+      <c r="A664" s="4"/>
     </row>
     <row r="665" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A665" s="1"/>
+      <c r="A665" s="4"/>
     </row>
     <row r="666" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A666" s="1"/>
+      <c r="A666" s="4"/>
     </row>
     <row r="667" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A667" s="1"/>
+      <c r="A667" s="4"/>
     </row>
     <row r="668" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A668" s="1"/>
+      <c r="A668" s="4"/>
     </row>
     <row r="669" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A669" s="1"/>
+      <c r="A669" s="4"/>
     </row>
     <row r="670" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="1"/>
+      <c r="A670" s="4"/>
     </row>
     <row r="671" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A671" s="1"/>
+      <c r="A671" s="4"/>
     </row>
     <row r="672" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A672" s="1"/>
+      <c r="A672" s="4"/>
     </row>
     <row r="673" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A673" s="1"/>
+      <c r="A673" s="4"/>
     </row>
     <row r="674" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A674" s="1"/>
+      <c r="A674" s="4"/>
     </row>
     <row r="675" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="1"/>
+      <c r="A675" s="4"/>
     </row>
     <row r="676" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A676" s="1"/>
+      <c r="A676" s="4"/>
     </row>
     <row r="677" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="1"/>
+      <c r="A677" s="4"/>
     </row>
     <row r="678" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A678" s="1"/>
+      <c r="A678" s="4"/>
     </row>
     <row r="679" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="1"/>
+      <c r="A679" s="4"/>
     </row>
     <row r="680" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A680" s="1"/>
+      <c r="A680" s="4"/>
     </row>
     <row r="681" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="1"/>
+      <c r="A681" s="4"/>
     </row>
     <row r="682" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A682" s="1"/>
+      <c r="A682" s="4"/>
     </row>
     <row r="683" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="1"/>
+      <c r="A683" s="4"/>
     </row>
     <row r="684" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="1"/>
+      <c r="A684" s="4"/>
     </row>
     <row r="685" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A685" s="1"/>
+      <c r="A685" s="4"/>
     </row>
     <row r="686" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A686" s="1"/>
+      <c r="A686" s="4"/>
     </row>
     <row r="687" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="1"/>
+      <c r="A687" s="4"/>
     </row>
     <row r="688" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A688" s="1"/>
+      <c r="A688" s="4"/>
     </row>
     <row r="689" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A689" s="1"/>
+      <c r="A689" s="4"/>
     </row>
     <row r="690" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A690" s="1"/>
+      <c r="A690" s="4"/>
     </row>
     <row r="691" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A691" s="1"/>
+      <c r="A691" s="4"/>
     </row>
     <row r="692" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A692" s="1"/>
+      <c r="A692" s="4"/>
     </row>
     <row r="693" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A693" s="1"/>
+      <c r="A693" s="4"/>
     </row>
     <row r="694" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A694" s="1"/>
+      <c r="A694" s="4"/>
     </row>
     <row r="695" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A695" s="1"/>
+      <c r="A695" s="4"/>
     </row>
     <row r="696" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A696" s="1"/>
+      <c r="A696" s="4"/>
     </row>
     <row r="697" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A697" s="1"/>
+      <c r="A697" s="4"/>
     </row>
     <row r="698" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A698" s="1"/>
+      <c r="A698" s="4"/>
     </row>
     <row r="699" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A699" s="1"/>
+      <c r="A699" s="4"/>
     </row>
     <row r="700" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A700" s="1"/>
+      <c r="A700" s="4"/>
     </row>
     <row r="701" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A701" s="1"/>
+      <c r="A701" s="4"/>
     </row>
     <row r="702" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="1"/>
+      <c r="A702" s="4"/>
     </row>
     <row r="703" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A703" s="1"/>
+      <c r="A703" s="4"/>
     </row>
     <row r="704" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A704" s="1"/>
+      <c r="A704" s="4"/>
     </row>
     <row r="705" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A705" s="1"/>
+      <c r="A705" s="4"/>
     </row>
     <row r="706" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A706" s="1"/>
+      <c r="A706" s="4"/>
     </row>
     <row r="707" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="1"/>
+      <c r="A707" s="4"/>
     </row>
     <row r="708" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A708" s="1"/>
+      <c r="A708" s="4"/>
     </row>
     <row r="709" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A709" s="1"/>
+      <c r="A709" s="4"/>
     </row>
     <row r="710" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A710" s="1"/>
+      <c r="A710" s="4"/>
     </row>
     <row r="711" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A711" s="1"/>
+      <c r="A711" s="4"/>
     </row>
     <row r="712" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A712" s="1"/>
+      <c r="A712" s="4"/>
     </row>
     <row r="713" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="1"/>
+      <c r="A713" s="4"/>
     </row>
     <row r="714" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A714" s="1"/>
+      <c r="A714" s="4"/>
     </row>
     <row r="715" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A715" s="1"/>
+      <c r="A715" s="4"/>
     </row>
     <row r="716" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A716" s="1"/>
+      <c r="A716" s="4"/>
     </row>
     <row r="717" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="1"/>
+      <c r="A717" s="4"/>
     </row>
     <row r="718" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A718" s="1"/>
+      <c r="A718" s="4"/>
     </row>
     <row r="719" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A719" s="1"/>
+      <c r="A719" s="4"/>
     </row>
     <row r="720" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A720" s="1"/>
+      <c r="A720" s="4"/>
     </row>
     <row r="721" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A721" s="1"/>
+      <c r="A721" s="4"/>
     </row>
     <row r="722" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A722" s="1"/>
+      <c r="A722" s="4"/>
     </row>
     <row r="723" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A723" s="1"/>
+      <c r="A723" s="4"/>
     </row>
     <row r="724" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A724" s="1"/>
+      <c r="A724" s="4"/>
     </row>
     <row r="725" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A725" s="1"/>
+      <c r="A725" s="4"/>
     </row>
     <row r="726" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A726" s="1"/>
+      <c r="A726" s="4"/>
     </row>
     <row r="727" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A727" s="1"/>
+      <c r="A727" s="4"/>
     </row>
     <row r="728" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A728" s="1"/>
+      <c r="A728" s="4"/>
     </row>
     <row r="729" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A729" s="1"/>
+      <c r="A729" s="4"/>
     </row>
     <row r="730" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A730" s="1"/>
+      <c r="A730" s="4"/>
     </row>
     <row r="731" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A731" s="1"/>
+      <c r="A731" s="4"/>
     </row>
     <row r="732" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A732" s="1"/>
+      <c r="A732" s="4"/>
     </row>
     <row r="733" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="1"/>
+      <c r="A733" s="4"/>
     </row>
     <row r="734" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A734" s="1"/>
+      <c r="A734" s="4"/>
     </row>
     <row r="735" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A735" s="1"/>
+      <c r="A735" s="4"/>
     </row>
     <row r="736" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A736" s="1"/>
+      <c r="A736" s="4"/>
     </row>
     <row r="737" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A737" s="1"/>
+      <c r="A737" s="4"/>
     </row>
     <row r="738" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A738" s="1"/>
+      <c r="A738" s="4"/>
     </row>
     <row r="739" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A739" s="1"/>
+      <c r="A739" s="4"/>
     </row>
     <row r="740" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A740" s="1"/>
+      <c r="A740" s="4"/>
     </row>
     <row r="741" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A741" s="1"/>
+      <c r="A741" s="4"/>
     </row>
     <row r="742" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A742" s="1"/>
+      <c r="A742" s="4"/>
     </row>
     <row r="743" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A743" s="1"/>
+      <c r="A743" s="4"/>
     </row>
     <row r="744" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A744" s="1"/>
+      <c r="A744" s="4"/>
     </row>
     <row r="745" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A745" s="1"/>
+      <c r="A745" s="4"/>
     </row>
     <row r="746" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A746" s="1"/>
+      <c r="A746" s="4"/>
     </row>
     <row r="747" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A747" s="1"/>
+      <c r="A747" s="4"/>
     </row>
     <row r="748" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A748" s="1"/>
+      <c r="A748" s="4"/>
     </row>
     <row r="749" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="1"/>
+      <c r="A749" s="4"/>
     </row>
     <row r="750" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A750" s="1"/>
+      <c r="A750" s="4"/>
     </row>
     <row r="751" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A751" s="1"/>
+      <c r="A751" s="4"/>
     </row>
     <row r="752" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A752" s="1"/>
+      <c r="A752" s="4"/>
     </row>
     <row r="753" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A753" s="1"/>
+      <c r="A753" s="4"/>
     </row>
     <row r="754" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A754" s="1"/>
+      <c r="A754" s="4"/>
     </row>
     <row r="755" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A755" s="1"/>
+      <c r="A755" s="4"/>
     </row>
     <row r="756" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A756" s="1"/>
+      <c r="A756" s="4"/>
     </row>
     <row r="757" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A757" s="1"/>
+      <c r="A757" s="4"/>
     </row>
     <row r="758" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A758" s="1"/>
+      <c r="A758" s="4"/>
     </row>
     <row r="759" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A759" s="1"/>
+      <c r="A759" s="4"/>
     </row>
     <row r="760" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A760" s="1"/>
+      <c r="A760" s="4"/>
     </row>
     <row r="761" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A761" s="1"/>
+      <c r="A761" s="4"/>
     </row>
     <row r="762" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A762" s="1"/>
+      <c r="A762" s="4"/>
     </row>
     <row r="763" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A763" s="1"/>
+      <c r="A763" s="4"/>
     </row>
     <row r="764" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A764" s="1"/>
+      <c r="A764" s="4"/>
     </row>
     <row r="765" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A765" s="1"/>
+      <c r="A765" s="4"/>
     </row>
     <row r="766" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A766" s="1"/>
+      <c r="A766" s="4"/>
     </row>
     <row r="767" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A767" s="1"/>
+      <c r="A767" s="4"/>
     </row>
     <row r="768" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A768" s="1"/>
+      <c r="A768" s="4"/>
     </row>
     <row r="769" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A769" s="1"/>
+      <c r="A769" s="4"/>
     </row>
     <row r="770" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A770" s="1"/>
+      <c r="A770" s="4"/>
     </row>
     <row r="771" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A771" s="1"/>
+      <c r="A771" s="4"/>
     </row>
     <row r="772" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A772" s="1"/>
+      <c r="A772" s="4"/>
     </row>
     <row r="773" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A773" s="1"/>
+      <c r="A773" s="4"/>
     </row>
     <row r="774" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A774" s="1"/>
+      <c r="A774" s="4"/>
     </row>
     <row r="775" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A775" s="1"/>
+      <c r="A775" s="4"/>
     </row>
     <row r="776" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A776" s="1"/>
+      <c r="A776" s="4"/>
     </row>
     <row r="777" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A777" s="1"/>
+      <c r="A777" s="4"/>
     </row>
     <row r="778" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A778" s="1"/>
+      <c r="A778" s="4"/>
     </row>
     <row r="779" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A779" s="1"/>
+      <c r="A779" s="4"/>
     </row>
     <row r="780" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A780" s="1"/>
+      <c r="A780" s="4"/>
     </row>
     <row r="781" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A781" s="1"/>
+      <c r="A781" s="4"/>
     </row>
     <row r="782" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A782" s="1"/>
+      <c r="A782" s="4"/>
     </row>
     <row r="783" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A783" s="1"/>
+      <c r="A783" s="4"/>
     </row>
     <row r="784" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A784" s="1"/>
+      <c r="A784" s="4"/>
     </row>
     <row r="785" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A785" s="1"/>
+      <c r="A785" s="4"/>
     </row>
     <row r="786" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A786" s="1"/>
+      <c r="A786" s="4"/>
     </row>
     <row r="787" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A787" s="1"/>
+      <c r="A787" s="4"/>
     </row>
     <row r="788" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A788" s="1"/>
+      <c r="A788" s="4"/>
     </row>
     <row r="789" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A789" s="1"/>
+      <c r="A789" s="4"/>
     </row>
     <row r="790" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A790" s="1"/>
+      <c r="A790" s="4"/>
     </row>
     <row r="791" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A791" s="1"/>
+      <c r="A791" s="4"/>
     </row>
     <row r="792" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A792" s="1"/>
+      <c r="A792" s="4"/>
     </row>
     <row r="793" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A793" s="1"/>
+      <c r="A793" s="4"/>
     </row>
     <row r="794" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A794" s="1"/>
+      <c r="A794" s="4"/>
     </row>
     <row r="795" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A795" s="1"/>
+      <c r="A795" s="4"/>
     </row>
     <row r="796" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A796" s="1"/>
+      <c r="A796" s="4"/>
     </row>
     <row r="797" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A797" s="1"/>
+      <c r="A797" s="4"/>
     </row>
     <row r="798" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A798" s="1"/>
+      <c r="A798" s="4"/>
     </row>
     <row r="799" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A799" s="1"/>
+      <c r="A799" s="4"/>
     </row>
     <row r="800" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A800" s="1"/>
+      <c r="A800" s="4"/>
     </row>
     <row r="801" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A801" s="1"/>
+      <c r="A801" s="4"/>
     </row>
     <row r="802" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A802" s="1"/>
+      <c r="A802" s="4"/>
     </row>
     <row r="803" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A803" s="1"/>
+      <c r="A803" s="4"/>
     </row>
     <row r="804" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A804" s="1"/>
+      <c r="A804" s="4"/>
     </row>
     <row r="805" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A805" s="1"/>
+      <c r="A805" s="4"/>
     </row>
     <row r="806" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A806" s="1"/>
+      <c r="A806" s="4"/>
     </row>
     <row r="807" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A807" s="1"/>
+      <c r="A807" s="4"/>
     </row>
     <row r="808" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A808" s="1"/>
+      <c r="A808" s="4"/>
     </row>
     <row r="809" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A809" s="1"/>
+      <c r="A809" s="4"/>
     </row>
     <row r="810" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A810" s="1"/>
+      <c r="A810" s="4"/>
     </row>
     <row r="811" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A811" s="1"/>
+      <c r="A811" s="4"/>
     </row>
     <row r="812" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A812" s="1"/>
+      <c r="A812" s="4"/>
     </row>
     <row r="813" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A813" s="1"/>
+      <c r="A813" s="4"/>
     </row>
     <row r="814" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A814" s="1"/>
+      <c r="A814" s="4"/>
     </row>
     <row r="815" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A815" s="1"/>
+      <c r="A815" s="4"/>
     </row>
     <row r="816" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A816" s="1"/>
+      <c r="A816" s="4"/>
     </row>
     <row r="817" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A817" s="1"/>
+      <c r="A817" s="4"/>
     </row>
     <row r="818" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A818" s="1"/>
+      <c r="A818" s="4"/>
     </row>
     <row r="819" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A819" s="1"/>
+      <c r="A819" s="4"/>
     </row>
     <row r="820" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A820" s="1"/>
+      <c r="A820" s="4"/>
     </row>
     <row r="821" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A821" s="1"/>
+      <c r="A821" s="4"/>
     </row>
     <row r="822" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A822" s="1"/>
+      <c r="A822" s="4"/>
     </row>
     <row r="823" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A823" s="1"/>
+      <c r="A823" s="4"/>
     </row>
     <row r="824" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A824" s="1"/>
+      <c r="A824" s="4"/>
     </row>
     <row r="825" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A825" s="1"/>
+      <c r="A825" s="4"/>
     </row>
     <row r="826" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A826" s="1"/>
+      <c r="A826" s="4"/>
     </row>
     <row r="827" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A827" s="1"/>
+      <c r="A827" s="4"/>
     </row>
     <row r="828" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A828" s="1"/>
+      <c r="A828" s="4"/>
     </row>
     <row r="829" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A829" s="1"/>
+      <c r="A829" s="4"/>
     </row>
     <row r="830" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A830" s="1"/>
+      <c r="A830" s="4"/>
     </row>
     <row r="831" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A831" s="1"/>
+      <c r="A831" s="4"/>
     </row>
     <row r="832" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A832" s="1"/>
+      <c r="A832" s="4"/>
     </row>
     <row r="833" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A833" s="1"/>
+      <c r="A833" s="4"/>
     </row>
     <row r="834" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A834" s="1"/>
+      <c r="A834" s="4"/>
     </row>
     <row r="835" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A835" s="1"/>
+      <c r="A835" s="4"/>
     </row>
     <row r="836" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A836" s="1"/>
+      <c r="A836" s="4"/>
     </row>
     <row r="837" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A837" s="1"/>
+      <c r="A837" s="4"/>
     </row>
     <row r="838" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A838" s="1"/>
+      <c r="A838" s="4"/>
     </row>
     <row r="839" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A839" s="1"/>
+      <c r="A839" s="4"/>
     </row>
     <row r="840" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A840" s="1"/>
+      <c r="A840" s="4"/>
     </row>
     <row r="841" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A841" s="1"/>
+      <c r="A841" s="4"/>
     </row>
     <row r="842" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A842" s="1"/>
+      <c r="A842" s="4"/>
     </row>
     <row r="843" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A843" s="1"/>
+      <c r="A843" s="4"/>
     </row>
     <row r="844" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A844" s="1"/>
+      <c r="A844" s="4"/>
     </row>
     <row r="845" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A845" s="1"/>
+      <c r="A845" s="4"/>
     </row>
     <row r="846" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A846" s="1"/>
+      <c r="A846" s="4"/>
     </row>
     <row r="847" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A847" s="1"/>
+      <c r="A847" s="4"/>
     </row>
     <row r="848" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A848" s="1"/>
+      <c r="A848" s="4"/>
     </row>
     <row r="849" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A849" s="1"/>
+      <c r="A849" s="4"/>
     </row>
     <row r="850" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A850" s="1"/>
+      <c r="A850" s="4"/>
     </row>
     <row r="851" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A851" s="1"/>
+      <c r="A851" s="4"/>
     </row>
     <row r="852" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A852" s="1"/>
+      <c r="A852" s="4"/>
     </row>
     <row r="853" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A853" s="1"/>
+      <c r="A853" s="4"/>
     </row>
     <row r="854" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A854" s="1"/>
+      <c r="A854" s="4"/>
     </row>
     <row r="855" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A855" s="1"/>
+      <c r="A855" s="4"/>
     </row>
     <row r="856" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A856" s="1"/>
+      <c r="A856" s="4"/>
     </row>
     <row r="857" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A857" s="1"/>
+      <c r="A857" s="4"/>
     </row>
     <row r="858" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A858" s="1"/>
+      <c r="A858" s="4"/>
     </row>
     <row r="859" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A859" s="1"/>
+      <c r="A859" s="4"/>
     </row>
     <row r="860" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A860" s="1"/>
+      <c r="A860" s="4"/>
     </row>
     <row r="861" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A861" s="1"/>
+      <c r="A861" s="4"/>
     </row>
     <row r="862" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A862" s="1"/>
+      <c r="A862" s="4"/>
     </row>
     <row r="863" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A863" s="1"/>
+      <c r="A863" s="4"/>
     </row>
     <row r="864" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A864" s="1"/>
+      <c r="A864" s="4"/>
     </row>
     <row r="865" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A865" s="1"/>
+      <c r="A865" s="4"/>
     </row>
     <row r="866" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A866" s="1"/>
+      <c r="A866" s="4"/>
     </row>
     <row r="867" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A867" s="1"/>
+      <c r="A867" s="4"/>
     </row>
     <row r="868" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A868" s="1"/>
+      <c r="A868" s="4"/>
     </row>
     <row r="869" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A869" s="1"/>
+      <c r="A869" s="4"/>
     </row>
     <row r="870" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A870" s="1"/>
+      <c r="A870" s="4"/>
     </row>
     <row r="871" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A871" s="1"/>
+      <c r="A871" s="4"/>
     </row>
     <row r="872" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A872" s="1"/>
+      <c r="A872" s="4"/>
     </row>
     <row r="873" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A873" s="1"/>
+      <c r="A873" s="4"/>
     </row>
     <row r="874" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A874" s="1"/>
+      <c r="A874" s="4"/>
     </row>
     <row r="875" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A875" s="1"/>
+      <c r="A875" s="4"/>
     </row>
     <row r="876" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A876" s="1"/>
+      <c r="A876" s="4"/>
     </row>
     <row r="877" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A877" s="1"/>
+      <c r="A877" s="4"/>
     </row>
     <row r="878" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A878" s="1"/>
+      <c r="A878" s="4"/>
     </row>
     <row r="879" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A879" s="1"/>
+      <c r="A879" s="4"/>
     </row>
     <row r="880" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A880" s="1"/>
+      <c r="A880" s="4"/>
     </row>
     <row r="881" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A881" s="1"/>
+      <c r="A881" s="4"/>
     </row>
     <row r="882" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A882" s="1"/>
+      <c r="A882" s="4"/>
     </row>
     <row r="883" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A883" s="1"/>
+      <c r="A883" s="4"/>
     </row>
     <row r="884" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A884" s="1"/>
+      <c r="A884" s="4"/>
     </row>
     <row r="885" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A885" s="1"/>
+      <c r="A885" s="4"/>
     </row>
     <row r="886" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A886" s="1"/>
+      <c r="A886" s="4"/>
     </row>
     <row r="887" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A887" s="1"/>
+      <c r="A887" s="4"/>
     </row>
     <row r="888" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="1"/>
+      <c r="A888" s="4"/>
     </row>
     <row r="889" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A889" s="1"/>
+      <c r="A889" s="4"/>
     </row>
     <row r="890" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A890" s="1"/>
+      <c r="A890" s="4"/>
     </row>
     <row r="891" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A891" s="1"/>
+      <c r="A891" s="4"/>
     </row>
     <row r="892" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A892" s="1"/>
+      <c r="A892" s="4"/>
     </row>
     <row r="893" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A893" s="1"/>
+      <c r="A893" s="4"/>
     </row>
     <row r="894" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="1"/>
+      <c r="A894" s="4"/>
     </row>
     <row r="895" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A895" s="1"/>
+      <c r="A895" s="4"/>
     </row>
     <row r="896" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A896" s="1"/>
+      <c r="A896" s="4"/>
     </row>
     <row r="897" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A897" s="1"/>
+      <c r="A897" s="4"/>
     </row>
     <row r="898" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A898" s="1"/>
+      <c r="A898" s="4"/>
     </row>
     <row r="899" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A899" s="1"/>
+      <c r="A899" s="4"/>
     </row>
     <row r="900" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A900" s="1"/>
+      <c r="A900" s="4"/>
     </row>
     <row r="901" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A901" s="1"/>
+      <c r="A901" s="4"/>
     </row>
     <row r="902" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A902" s="1"/>
+      <c r="A902" s="4"/>
     </row>
     <row r="903" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A903" s="1"/>
+      <c r="A903" s="4"/>
     </row>
     <row r="904" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A904" s="1"/>
+      <c r="A904" s="4"/>
     </row>
     <row r="905" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A905" s="1"/>
+      <c r="A905" s="4"/>
     </row>
     <row r="906" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A906" s="1"/>
+      <c r="A906" s="4"/>
     </row>
     <row r="907" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A907" s="1"/>
+      <c r="A907" s="4"/>
     </row>
     <row r="908" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A908" s="1"/>
+      <c r="A908" s="4"/>
     </row>
     <row r="909" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A909" s="1"/>
+      <c r="A909" s="4"/>
     </row>
     <row r="910" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A910" s="1"/>
+      <c r="A910" s="4"/>
     </row>
     <row r="911" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A911" s="1"/>
+      <c r="A911" s="4"/>
     </row>
     <row r="912" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A912" s="1"/>
+      <c r="A912" s="4"/>
     </row>
     <row r="913" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A913" s="1"/>
+      <c r="A913" s="4"/>
     </row>
     <row r="914" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A914" s="1"/>
+      <c r="A914" s="4"/>
     </row>
     <row r="915" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A915" s="1"/>
+      <c r="A915" s="4"/>
     </row>
     <row r="916" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A916" s="1"/>
+      <c r="A916" s="4"/>
     </row>
     <row r="917" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A917" s="1"/>
+      <c r="A917" s="4"/>
     </row>
     <row r="918" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A918" s="1"/>
+      <c r="A918" s="4"/>
     </row>
     <row r="919" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A919" s="1"/>
+      <c r="A919" s="4"/>
     </row>
     <row r="920" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A920" s="1"/>
+      <c r="A920" s="4"/>
     </row>
     <row r="921" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A921" s="1"/>
+      <c r="A921" s="4"/>
     </row>
     <row r="922" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A922" s="1"/>
+      <c r="A922" s="4"/>
     </row>
     <row r="923" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A923" s="1"/>
+      <c r="A923" s="4"/>
     </row>
     <row r="924" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A924" s="1"/>
+      <c r="A924" s="4"/>
     </row>
     <row r="925" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A925" s="1"/>
+      <c r="A925" s="4"/>
     </row>
     <row r="926" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A926" s="1"/>
+      <c r="A926" s="4"/>
     </row>
     <row r="927" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A927" s="1"/>
+      <c r="A927" s="4"/>
     </row>
     <row r="928" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A928" s="1"/>
+      <c r="A928" s="4"/>
     </row>
     <row r="929" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A929" s="1"/>
+      <c r="A929" s="4"/>
     </row>
     <row r="930" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A930" s="1"/>
+      <c r="A930" s="4"/>
     </row>
     <row r="931" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A931" s="1"/>
+      <c r="A931" s="4"/>
     </row>
     <row r="932" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A932" s="1"/>
+      <c r="A932" s="4"/>
     </row>
     <row r="933" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A933" s="1"/>
+      <c r="A933" s="4"/>
     </row>
     <row r="934" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A934" s="1"/>
+      <c r="A934" s="4"/>
     </row>
     <row r="935" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A935" s="1"/>
+      <c r="A935" s="4"/>
     </row>
     <row r="936" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A936" s="1"/>
+      <c r="A936" s="4"/>
     </row>
     <row r="937" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A937" s="1"/>
+      <c r="A937" s="4"/>
     </row>
     <row r="938" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A938" s="1"/>
+      <c r="A938" s="4"/>
     </row>
     <row r="939" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A939" s="1"/>
+      <c r="A939" s="4"/>
     </row>
     <row r="940" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A940" s="1"/>
+      <c r="A940" s="4"/>
     </row>
     <row r="941" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A941" s="1"/>
+      <c r="A941" s="4"/>
     </row>
     <row r="942" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A942" s="1"/>
+      <c r="A942" s="4"/>
     </row>
     <row r="943" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A943" s="1"/>
+      <c r="A943" s="4"/>
     </row>
     <row r="944" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A944" s="1"/>
+      <c r="A944" s="4"/>
     </row>
     <row r="945" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A945" s="1"/>
+      <c r="A945" s="4"/>
     </row>
     <row r="946" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A946" s="1"/>
+      <c r="A946" s="4"/>
     </row>
     <row r="947" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A947" s="1"/>
+      <c r="A947" s="4"/>
     </row>
     <row r="948" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A948" s="1"/>
+      <c r="A948" s="4"/>
     </row>
     <row r="949" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A949" s="1"/>
+      <c r="A949" s="4"/>
     </row>
     <row r="950" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A950" s="1"/>
+      <c r="A950" s="4"/>
     </row>
     <row r="951" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A951" s="1"/>
+      <c r="A951" s="4"/>
     </row>
     <row r="952" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A952" s="1"/>
+      <c r="A952" s="4"/>
     </row>
     <row r="953" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A953" s="1"/>
+      <c r="A953" s="4"/>
     </row>
     <row r="954" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A954" s="1"/>
+      <c r="A954" s="4"/>
     </row>
     <row r="955" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A955" s="1"/>
+      <c r="A955" s="4"/>
     </row>
     <row r="956" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A956" s="1"/>
+      <c r="A956" s="4"/>
     </row>
     <row r="957" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A957" s="1"/>
+      <c r="A957" s="4"/>
     </row>
     <row r="958" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A958" s="1"/>
+      <c r="A958" s="4"/>
     </row>
     <row r="959" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A959" s="1"/>
+      <c r="A959" s="4"/>
     </row>
     <row r="960" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A960" s="1"/>
+      <c r="A960" s="4"/>
     </row>
     <row r="961" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A961" s="1"/>
+      <c r="A961" s="4"/>
     </row>
     <row r="962" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A962" s="1"/>
+      <c r="A962" s="4"/>
     </row>
     <row r="963" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A963" s="1"/>
+      <c r="A963" s="4"/>
     </row>
     <row r="964" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A964" s="1"/>
+      <c r="A964" s="4"/>
     </row>
     <row r="965" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A965" s="1"/>
+      <c r="A965" s="4"/>
     </row>
     <row r="966" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A966" s="1"/>
+      <c r="A966" s="4"/>
     </row>
     <row r="967" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A967" s="1"/>
+      <c r="A967" s="4"/>
     </row>
     <row r="968" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A968" s="1"/>
+      <c r="A968" s="4"/>
     </row>
     <row r="969" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A969" s="1"/>
+      <c r="A969" s="4"/>
     </row>
     <row r="970" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A970" s="1"/>
+      <c r="A970" s="4"/>
     </row>
     <row r="971" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A971" s="1"/>
+      <c r="A971" s="4"/>
     </row>
     <row r="972" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A972" s="1"/>
+      <c r="A972" s="4"/>
     </row>
     <row r="973" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A973" s="1"/>
+      <c r="A973" s="4"/>
     </row>
     <row r="974" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A974" s="1"/>
+      <c r="A974" s="4"/>
     </row>
     <row r="975" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A975" s="1"/>
+      <c r="A975" s="4"/>
     </row>
     <row r="976" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A976" s="1"/>
+      <c r="A976" s="4"/>
     </row>
     <row r="977" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A977" s="1"/>
+      <c r="A977" s="4"/>
     </row>
     <row r="978" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A978" s="1"/>
+      <c r="A978" s="4"/>
     </row>
     <row r="979" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A979" s="1"/>
+      <c r="A979" s="4"/>
     </row>
     <row r="980" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A980" s="1"/>
+      <c r="A980" s="4"/>
     </row>
     <row r="981" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A981" s="1"/>
+      <c r="A981" s="4"/>
     </row>
     <row r="982" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A982" s="1"/>
+      <c r="A982" s="4"/>
     </row>
     <row r="983" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A983" s="1"/>
+      <c r="A983" s="4"/>
     </row>
     <row r="984" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A984" s="1"/>
+      <c r="A984" s="4"/>
     </row>
     <row r="985" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A985" s="1"/>
+      <c r="A985" s="4"/>
     </row>
     <row r="986" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A986" s="1"/>
+      <c r="A986" s="4"/>
     </row>
     <row r="987" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A987" s="1"/>
+      <c r="A987" s="4"/>
     </row>
     <row r="988" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A988" s="1"/>
+      <c r="A988" s="4"/>
     </row>
     <row r="989" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A989" s="1"/>
+      <c r="A989" s="4"/>
     </row>
     <row r="990" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A990" s="1"/>
+      <c r="A990" s="4"/>
     </row>
     <row r="991" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A991" s="1"/>
+      <c r="A991" s="4"/>
     </row>
     <row r="992" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A992" s="1"/>
+      <c r="A992" s="4"/>
     </row>
     <row r="993" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A993" s="1"/>
+      <c r="A993" s="4"/>
     </row>
     <row r="994" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A994" s="1"/>
+      <c r="A994" s="4"/>
     </row>
     <row r="995" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A995" s="1"/>
+      <c r="A995" s="4"/>
     </row>
     <row r="996" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="1"/>
+      <c r="A996" s="4"/>
     </row>
     <row r="997" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A997" s="1"/>
+      <c r="A997" s="4"/>
     </row>
     <row r="998" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A998" s="1"/>
+      <c r="A998" s="4"/>
     </row>
     <row r="999" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="1"/>
+      <c r="A999" s="4"/>
     </row>
     <row r="1000" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1"/>
+      <c r="A1000" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H513" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -15363,17 +15367,18 @@
   </sheetPr>
   <dimension ref="A1:H1107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A611" workbookViewId="0">
-      <selection activeCell="A621" sqref="A621"/>
+    <sheetView topLeftCell="A608" workbookViewId="0">
+      <selection activeCell="A593" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.42578125" style="28"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -15399,7 +15404,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>110020</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -15425,7 +15430,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>110020</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -15451,7 +15456,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>110020</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -15477,7 +15482,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>110020</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -15503,7 +15508,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>110020</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -15529,7 +15534,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>110020</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -15555,7 +15560,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>110020</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -15581,7 +15586,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>110020</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -15607,7 +15612,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>110020</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -15633,7 +15638,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>110020</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -15659,7 +15664,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>110020</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -15685,7 +15690,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>110020</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -15711,7 +15716,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>110020</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -15737,7 +15742,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>110020</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -15763,7 +15768,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>110020</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -15789,7 +15794,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>110020</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -15815,7 +15820,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>110020</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -15841,7 +15846,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>110020</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -15867,7 +15872,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>110020</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -15893,7 +15898,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>110020</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -28893,7 +28898,7 @@
       </c>
     </row>
     <row r="521" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="28">
+      <c r="A521" s="4">
         <v>1300000</v>
       </c>
       <c r="B521" s="3" t="s">
@@ -28919,7 +28924,7 @@
       </c>
     </row>
     <row r="522" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="28">
+      <c r="A522" s="4">
         <v>1300000</v>
       </c>
       <c r="B522" s="3" t="s">
@@ -28945,7 +28950,7 @@
       </c>
     </row>
     <row r="523" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="28">
+      <c r="A523" s="4">
         <v>1300000</v>
       </c>
       <c r="B523" s="3" t="s">
@@ -28971,7 +28976,7 @@
       </c>
     </row>
     <row r="524" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="28">
+      <c r="A524" s="4">
         <v>1300000</v>
       </c>
       <c r="B524" s="3" t="s">
@@ -28997,7 +29002,7 @@
       </c>
     </row>
     <row r="525" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="28">
+      <c r="A525" s="4">
         <v>1300000</v>
       </c>
       <c r="B525" s="3" t="s">
@@ -29023,7 +29028,7 @@
       </c>
     </row>
     <row r="526" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="28">
+      <c r="A526" s="4">
         <v>1300000</v>
       </c>
       <c r="B526" s="3" t="s">
@@ -29049,7 +29054,7 @@
       </c>
     </row>
     <row r="527" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="28">
+      <c r="A527" s="4">
         <v>1300000</v>
       </c>
       <c r="B527" s="3" t="s">
@@ -29075,7 +29080,7 @@
       </c>
     </row>
     <row r="528" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="28">
+      <c r="A528" s="4">
         <v>1300000</v>
       </c>
       <c r="B528" s="3" t="s">
@@ -29101,7 +29106,7 @@
       </c>
     </row>
     <row r="529" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="28">
+      <c r="A529" s="4">
         <v>1300000</v>
       </c>
       <c r="B529" s="3" t="s">
@@ -29127,7 +29132,7 @@
       </c>
     </row>
     <row r="530" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="28">
+      <c r="A530" s="4">
         <v>1300000</v>
       </c>
       <c r="B530" s="3" t="s">
@@ -29153,7 +29158,7 @@
       </c>
     </row>
     <row r="531" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="28">
+      <c r="A531" s="4">
         <v>1300000</v>
       </c>
       <c r="B531" s="3" t="s">
@@ -29179,7 +29184,7 @@
       </c>
     </row>
     <row r="532" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="28">
+      <c r="A532" s="4">
         <v>1300000</v>
       </c>
       <c r="B532" s="3" t="s">
@@ -29205,7 +29210,7 @@
       </c>
     </row>
     <row r="533" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="28">
+      <c r="A533" s="4">
         <v>1300000</v>
       </c>
       <c r="B533" s="3" t="s">
@@ -29231,7 +29236,7 @@
       </c>
     </row>
     <row r="534" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="28">
+      <c r="A534" s="4">
         <v>1300000</v>
       </c>
       <c r="B534" s="3" t="s">
@@ -29257,7 +29262,7 @@
       </c>
     </row>
     <row r="535" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="28">
+      <c r="A535" s="4">
         <v>1300000</v>
       </c>
       <c r="B535" s="3" t="s">
@@ -29283,7 +29288,7 @@
       </c>
     </row>
     <row r="536" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="28">
+      <c r="A536" s="4">
         <v>1300000</v>
       </c>
       <c r="B536" s="3" t="s">
@@ -29309,7 +29314,7 @@
       </c>
     </row>
     <row r="537" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="28">
+      <c r="A537" s="4">
         <v>1300000</v>
       </c>
       <c r="B537" s="3" t="s">
@@ -29335,7 +29340,7 @@
       </c>
     </row>
     <row r="538" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="28">
+      <c r="A538" s="4">
         <v>1300000</v>
       </c>
       <c r="B538" s="3" t="s">
@@ -29361,7 +29366,7 @@
       </c>
     </row>
     <row r="539" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="28">
+      <c r="A539" s="4">
         <v>1300000</v>
       </c>
       <c r="B539" s="3" t="s">
@@ -29387,7 +29392,7 @@
       </c>
     </row>
     <row r="540" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="28">
+      <c r="A540" s="4">
         <v>1300000</v>
       </c>
       <c r="B540" s="3" t="s">
@@ -29413,7 +29418,7 @@
       </c>
     </row>
     <row r="541" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="28">
+      <c r="A541" s="4">
         <v>2900000</v>
       </c>
       <c r="B541" s="3" t="s">
@@ -29439,7 +29444,7 @@
       </c>
     </row>
     <row r="542" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="28">
+      <c r="A542" s="4">
         <v>2900000</v>
       </c>
       <c r="B542" s="3" t="s">
@@ -29465,7 +29470,7 @@
       </c>
     </row>
     <row r="543" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="28">
+      <c r="A543" s="4">
         <v>2900000</v>
       </c>
       <c r="B543" s="3" t="s">
@@ -29491,7 +29496,7 @@
       </c>
     </row>
     <row r="544" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="28">
+      <c r="A544" s="4">
         <v>2900000</v>
       </c>
       <c r="B544" s="3" t="s">
@@ -29517,7 +29522,7 @@
       </c>
     </row>
     <row r="545" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="28">
+      <c r="A545" s="4">
         <v>2900000</v>
       </c>
       <c r="B545" s="3" t="s">
@@ -29543,7 +29548,7 @@
       </c>
     </row>
     <row r="546" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="28">
+      <c r="A546" s="4">
         <v>2900000</v>
       </c>
       <c r="B546" s="3" t="s">
@@ -29569,7 +29574,7 @@
       </c>
     </row>
     <row r="547" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="28">
+      <c r="A547" s="4">
         <v>2900000</v>
       </c>
       <c r="B547" s="3" t="s">
@@ -29595,7 +29600,7 @@
       </c>
     </row>
     <row r="548" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="28">
+      <c r="A548" s="4">
         <v>2900000</v>
       </c>
       <c r="B548" s="3" t="s">
@@ -29621,7 +29626,7 @@
       </c>
     </row>
     <row r="549" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="28">
+      <c r="A549" s="4">
         <v>2900000</v>
       </c>
       <c r="B549" s="3" t="s">
@@ -29647,7 +29652,7 @@
       </c>
     </row>
     <row r="550" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="28">
+      <c r="A550" s="4">
         <v>2900000</v>
       </c>
       <c r="B550" s="3" t="s">
@@ -29673,7 +29678,7 @@
       </c>
     </row>
     <row r="551" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="28">
+      <c r="A551" s="4">
         <v>2900000</v>
       </c>
       <c r="B551" s="3" t="s">
@@ -29699,7 +29704,7 @@
       </c>
     </row>
     <row r="552" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="28">
+      <c r="A552" s="4">
         <v>2900000</v>
       </c>
       <c r="B552" s="3" t="s">
@@ -29725,7 +29730,7 @@
       </c>
     </row>
     <row r="553" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="28">
+      <c r="A553" s="4">
         <v>2900000</v>
       </c>
       <c r="B553" s="3" t="s">
@@ -29751,7 +29756,7 @@
       </c>
     </row>
     <row r="554" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="28">
+      <c r="A554" s="4">
         <v>2900000</v>
       </c>
       <c r="B554" s="3" t="s">
@@ -29777,7 +29782,7 @@
       </c>
     </row>
     <row r="555" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="28">
+      <c r="A555" s="4">
         <v>2900000</v>
       </c>
       <c r="B555" s="3" t="s">
@@ -29803,7 +29808,7 @@
       </c>
     </row>
     <row r="556" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="28">
+      <c r="A556" s="4">
         <v>2900000</v>
       </c>
       <c r="B556" s="3" t="s">
@@ -29829,7 +29834,7 @@
       </c>
     </row>
     <row r="557" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="28">
+      <c r="A557" s="4">
         <v>2900000</v>
       </c>
       <c r="B557" s="3" t="s">
@@ -29855,7 +29860,7 @@
       </c>
     </row>
     <row r="558" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="28">
+      <c r="A558" s="4">
         <v>2900000</v>
       </c>
       <c r="B558" s="3" t="s">
@@ -29881,7 +29886,7 @@
       </c>
     </row>
     <row r="559" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="28">
+      <c r="A559" s="4">
         <v>2900000</v>
       </c>
       <c r="B559" s="3" t="s">
@@ -29907,7 +29912,7 @@
       </c>
     </row>
     <row r="560" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="28">
+      <c r="A560" s="4">
         <v>2900000</v>
       </c>
       <c r="B560" s="3" t="s">
@@ -29933,7 +29938,7 @@
       </c>
     </row>
     <row r="561" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="28">
+      <c r="A561" s="4">
         <v>3500000</v>
       </c>
       <c r="B561" s="3" t="s">
@@ -29959,7 +29964,7 @@
       </c>
     </row>
     <row r="562" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="28">
+      <c r="A562" s="4">
         <v>3500000</v>
       </c>
       <c r="B562" s="3" t="s">
@@ -29985,7 +29990,7 @@
       </c>
     </row>
     <row r="563" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="28">
+      <c r="A563" s="4">
         <v>3500000</v>
       </c>
       <c r="B563" s="3" t="s">
@@ -30011,7 +30016,7 @@
       </c>
     </row>
     <row r="564" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="28">
+      <c r="A564" s="4">
         <v>3500000</v>
       </c>
       <c r="B564" s="3" t="s">
@@ -30037,7 +30042,7 @@
       </c>
     </row>
     <row r="565" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="28">
+      <c r="A565" s="4">
         <v>3500000</v>
       </c>
       <c r="B565" s="3" t="s">
@@ -30063,7 +30068,7 @@
       </c>
     </row>
     <row r="566" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="28">
+      <c r="A566" s="4">
         <v>3500000</v>
       </c>
       <c r="B566" s="3" t="s">
@@ -30089,7 +30094,7 @@
       </c>
     </row>
     <row r="567" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="28">
+      <c r="A567" s="4">
         <v>3500000</v>
       </c>
       <c r="B567" s="3" t="s">
@@ -30115,7 +30120,7 @@
       </c>
     </row>
     <row r="568" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="28">
+      <c r="A568" s="4">
         <v>3500000</v>
       </c>
       <c r="B568" s="3" t="s">
@@ -30141,7 +30146,7 @@
       </c>
     </row>
     <row r="569" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="28">
+      <c r="A569" s="4">
         <v>3500000</v>
       </c>
       <c r="B569" s="3" t="s">
@@ -30167,7 +30172,7 @@
       </c>
     </row>
     <row r="570" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="28">
+      <c r="A570" s="4">
         <v>3500000</v>
       </c>
       <c r="B570" s="3" t="s">
@@ -30193,7 +30198,7 @@
       </c>
     </row>
     <row r="571" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="28">
+      <c r="A571" s="4">
         <v>3500000</v>
       </c>
       <c r="B571" s="3" t="s">
@@ -30219,7 +30224,7 @@
       </c>
     </row>
     <row r="572" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="28">
+      <c r="A572" s="4">
         <v>3500000</v>
       </c>
       <c r="B572" s="3" t="s">
@@ -30245,7 +30250,7 @@
       </c>
     </row>
     <row r="573" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="28">
+      <c r="A573" s="4">
         <v>3500000</v>
       </c>
       <c r="B573" s="3" t="s">
@@ -30271,7 +30276,7 @@
       </c>
     </row>
     <row r="574" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="28">
+      <c r="A574" s="4">
         <v>3500000</v>
       </c>
       <c r="B574" s="3" t="s">
@@ -30297,7 +30302,7 @@
       </c>
     </row>
     <row r="575" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="28">
+      <c r="A575" s="4">
         <v>3500000</v>
       </c>
       <c r="B575" s="3" t="s">
@@ -30323,7 +30328,7 @@
       </c>
     </row>
     <row r="576" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="28">
+      <c r="A576" s="4">
         <v>3500000</v>
       </c>
       <c r="B576" s="3" t="s">
@@ -30349,7 +30354,7 @@
       </c>
     </row>
     <row r="577" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="28">
+      <c r="A577" s="4">
         <v>3500000</v>
       </c>
       <c r="B577" s="3" t="s">
@@ -30375,7 +30380,7 @@
       </c>
     </row>
     <row r="578" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="28">
+      <c r="A578" s="4">
         <v>3500000</v>
       </c>
       <c r="B578" s="3" t="s">
@@ -30401,7 +30406,7 @@
       </c>
     </row>
     <row r="579" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="28">
+      <c r="A579" s="4">
         <v>3500000</v>
       </c>
       <c r="B579" s="3" t="s">
@@ -30427,7 +30432,7 @@
       </c>
     </row>
     <row r="580" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="28">
+      <c r="A580" s="4">
         <v>3500000</v>
       </c>
       <c r="B580" s="3" t="s">
@@ -34827,9 +34832,14 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:A125"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
@@ -36132,8 +36142,8 @@
       <c r="D105" s="26"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>39</v>
+      <c r="A106" s="4">
+        <v>1300000</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>40</v>
@@ -36144,8 +36154,8 @@
       <c r="D106" s="26"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>39</v>
+      <c r="A107" s="4">
+        <v>1300000</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>40</v>
@@ -36156,8 +36166,8 @@
       <c r="D107" s="26"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>39</v>
+      <c r="A108" s="4">
+        <v>1300000</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>40</v>
@@ -36168,8 +36178,8 @@
       <c r="D108" s="26"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>39</v>
+      <c r="A109" s="4">
+        <v>1300000</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>40</v>
@@ -36180,8 +36190,8 @@
       <c r="D109" s="26"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>39</v>
+      <c r="A110" s="4">
+        <v>2900000</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>41</v>
@@ -36192,8 +36202,8 @@
       <c r="D110" s="26"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>39</v>
+      <c r="A111" s="4">
+        <v>2900000</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>41</v>
@@ -36204,8 +36214,8 @@
       <c r="D111" s="26"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>39</v>
+      <c r="A112" s="4">
+        <v>2900000</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>41</v>
@@ -36216,8 +36226,8 @@
       <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>39</v>
+      <c r="A113" s="4">
+        <v>2900000</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>41</v>
@@ -36228,8 +36238,8 @@
       <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>39</v>
+      <c r="A114" s="4">
+        <v>3500000</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>42</v>
@@ -36240,8 +36250,8 @@
       <c r="D114" s="26"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>39</v>
+      <c r="A115" s="4">
+        <v>3500000</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>42</v>
@@ -36252,8 +36262,8 @@
       <c r="D115" s="26"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>39</v>
+      <c r="A116" s="4">
+        <v>3500000</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>42</v>
@@ -36264,8 +36274,8 @@
       <c r="D116" s="26"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>39</v>
+      <c r="A117" s="4">
+        <v>3500000</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>42</v>
@@ -36276,8 +36286,8 @@
       <c r="D117" s="26"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>39</v>
+      <c r="A118" s="27">
+        <v>4100000</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>43</v>
@@ -36288,8 +36298,8 @@
       <c r="D118" s="26"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>39</v>
+      <c r="A119" s="27">
+        <v>4100000</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>43</v>
@@ -36300,8 +36310,8 @@
       <c r="D119" s="26"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>39</v>
+      <c r="A120" s="27">
+        <v>4100000</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>43</v>
@@ -36312,8 +36322,8 @@
       <c r="D120" s="26"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>39</v>
+      <c r="A121" s="27">
+        <v>4100000</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>43</v>
@@ -36324,8 +36334,8 @@
       <c r="D121" s="26"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>39</v>
+      <c r="A122" s="27">
+        <v>5200000</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>45</v>
@@ -36336,8 +36346,8 @@
       <c r="D122" s="26"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>39</v>
+      <c r="A123" s="27">
+        <v>5200000</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>45</v>
@@ -36348,8 +36358,8 @@
       <c r="D123" s="26"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>39</v>
+      <c r="A124" s="27">
+        <v>5200000</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>45</v>
@@ -36360,8 +36370,8 @@
       <c r="D124" s="26"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>39</v>
+      <c r="A125" s="27">
+        <v>5200000</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>45</v>

--- a/01_dados/cobertura sb.xlsx
+++ b/01_dados/cobertura sb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/saude_bucal/01_dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alefs\OneDrive\Documentos\saude_bucal\01_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{46C86A4B-E553-49DC-9EC2-D5DD632E082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FBDA084-9471-4622-AA23-976554A7D8DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDD276C-F730-4406-92B7-9049580734D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cobertura!$A$1:$H$513</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Produção normativa'!$A$1:$H$640</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="HneXCUNLCcpvWpzCnOLKPAdKc3Q4V6LfhlroD12zG6k="/>
     </ext>
@@ -528,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="B506" sqref="B506:B509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13679,7 +13688,7 @@
         <v>5200000</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>9</v>
@@ -13705,7 +13714,7 @@
         <v>5200000</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>11</v>
@@ -13731,7 +13740,7 @@
         <v>5200000</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>12</v>
@@ -13757,7 +13766,7 @@
         <v>5200000</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>13</v>
@@ -15357,7 +15366,7 @@
   </sheetPr>
   <dimension ref="A1:H1107"/>
   <sheetViews>
-    <sheetView topLeftCell="A608" workbookViewId="0">
+    <sheetView topLeftCell="A593" workbookViewId="0">
       <selection activeCell="A593" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>

--- a/01_dados/cobertura sb.xlsx
+++ b/01_dados/cobertura sb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/saude_bucal/01_dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D838DAA9-7914-4010-93BD-3E9D5CE8B2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5EC71F0-2FF6-4B82-ADE3-9064EE5B738D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D838DAA9-7914-4010-93BD-3E9D5CE8B2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8BCF14D-825E-43F6-A518-F8EC394992AB}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cobertura" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="53">
   <si>
     <t>ibge</t>
   </si>
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,6 +329,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A489" workbookViewId="0">
+      <selection activeCell="A498" sqref="A498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15327,8 +15330,8 @@
   </sheetPr>
   <dimension ref="A1:H1107"/>
   <sheetViews>
-    <sheetView topLeftCell="A593" workbookViewId="0">
-      <selection activeCell="A593" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A634" workbookViewId="0">
+      <selection activeCell="F641" sqref="F641:H644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30953,13 +30956,13 @@
       <c r="E601" s="11">
         <v>5</v>
       </c>
-      <c r="F601" s="8">
+      <c r="F601" s="31">
         <v>4.0057999999999998</v>
       </c>
-      <c r="G601" s="12">
+      <c r="G601" s="32">
         <v>3.5777999999999999</v>
       </c>
-      <c r="H601" s="12">
+      <c r="H601" s="32">
         <v>4.4337999999999997</v>
       </c>
     </row>
@@ -30979,13 +30982,13 @@
       <c r="E602" s="11">
         <v>1</v>
       </c>
-      <c r="F602" s="8">
+      <c r="F602" s="31">
         <v>2.9472</v>
       </c>
-      <c r="G602" s="12">
+      <c r="G602" s="32">
         <v>2.5223</v>
       </c>
-      <c r="H602" s="12">
+      <c r="H602" s="32">
         <v>3.3721000000000001</v>
       </c>
     </row>
@@ -31005,13 +31008,13 @@
       <c r="E603" s="11">
         <v>2</v>
       </c>
-      <c r="F603" s="8">
+      <c r="F603" s="31">
         <v>4.8186</v>
       </c>
-      <c r="G603" s="12">
+      <c r="G603" s="32">
         <v>3.8214999999999999</v>
       </c>
-      <c r="H603" s="12">
+      <c r="H603" s="32">
         <v>5.8158000000000003</v>
       </c>
     </row>
@@ -31031,13 +31034,13 @@
       <c r="E604" s="11">
         <v>3</v>
       </c>
-      <c r="F604" s="8">
+      <c r="F604" s="31">
         <v>4.9035000000000002</v>
       </c>
-      <c r="G604" s="12">
+      <c r="G604" s="32">
         <v>4.3490000000000002</v>
       </c>
-      <c r="H604" s="12">
+      <c r="H604" s="32">
         <v>5.4580000000000002</v>
       </c>
     </row>
@@ -31057,13 +31060,13 @@
       <c r="E605" s="11">
         <v>4</v>
       </c>
-      <c r="F605" s="8">
+      <c r="F605" s="31">
         <v>1.7768999999999999</v>
       </c>
-      <c r="G605" s="12">
+      <c r="G605" s="32">
         <v>1.3291999999999999</v>
       </c>
-      <c r="H605" s="12">
+      <c r="H605" s="32">
         <v>2.2246999999999999</v>
       </c>
     </row>
@@ -31977,193 +31980,593 @@
         <v>13.032</v>
       </c>
     </row>
-    <row r="641" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E641" s="9"/>
-      <c r="F641" s="9"/>
-      <c r="G641" s="10"/>
-      <c r="H641" s="10"/>
-    </row>
-    <row r="642" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E642" s="9"/>
-      <c r="F642" s="9"/>
-      <c r="G642" s="10"/>
-      <c r="H642" s="10"/>
-    </row>
-    <row r="643" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E643" s="9"/>
-      <c r="F643" s="9"/>
-      <c r="G643" s="10"/>
-      <c r="H643" s="10"/>
-    </row>
-    <row r="644" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E644" s="9"/>
-      <c r="F644" s="9"/>
-      <c r="G644" s="10"/>
-      <c r="H644" s="10"/>
-    </row>
-    <row r="645" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E645" s="9"/>
-      <c r="F645" s="9"/>
-      <c r="G645" s="10"/>
-      <c r="H645" s="10"/>
-    </row>
-    <row r="646" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E646" s="9"/>
-      <c r="F646" s="9"/>
-      <c r="G646" s="10"/>
-      <c r="H646" s="10"/>
-    </row>
-    <row r="647" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E647" s="9"/>
-      <c r="F647" s="9"/>
-      <c r="G647" s="10"/>
-      <c r="H647" s="10"/>
-    </row>
-    <row r="648" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E648" s="9"/>
-      <c r="F648" s="9"/>
-      <c r="G648" s="10"/>
-      <c r="H648" s="10"/>
-    </row>
-    <row r="649" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E649" s="9"/>
-      <c r="F649" s="9"/>
-      <c r="G649" s="10"/>
-      <c r="H649" s="10"/>
-    </row>
-    <row r="650" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E650" s="9"/>
-      <c r="F650" s="9"/>
-      <c r="G650" s="10"/>
-      <c r="H650" s="10"/>
-    </row>
-    <row r="651" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E651" s="9"/>
-      <c r="F651" s="9"/>
-      <c r="G651" s="10"/>
-      <c r="H651" s="10"/>
-    </row>
-    <row r="652" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E652" s="9"/>
-      <c r="F652" s="9"/>
-      <c r="G652" s="10"/>
-      <c r="H652" s="10"/>
-    </row>
-    <row r="653" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E653" s="9"/>
-      <c r="F653" s="9"/>
-      <c r="G653" s="10"/>
-      <c r="H653" s="10"/>
-    </row>
-    <row r="654" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E654" s="9"/>
-      <c r="F654" s="9"/>
-      <c r="G654" s="10"/>
-      <c r="H654" s="10"/>
-    </row>
-    <row r="655" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E655" s="9"/>
-      <c r="F655" s="9"/>
-      <c r="G655" s="10"/>
-      <c r="H655" s="10"/>
-    </row>
-    <row r="656" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E656" s="9"/>
-      <c r="F656" s="9"/>
-      <c r="G656" s="10"/>
-      <c r="H656" s="10"/>
-    </row>
-    <row r="657" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E657" s="9"/>
-      <c r="F657" s="9"/>
-      <c r="G657" s="10"/>
-      <c r="H657" s="10"/>
-    </row>
-    <row r="658" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E658" s="9"/>
-      <c r="F658" s="9"/>
-      <c r="G658" s="10"/>
-      <c r="H658" s="10"/>
-    </row>
-    <row r="659" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E659" s="9"/>
-      <c r="F659" s="9"/>
-      <c r="G659" s="10"/>
-      <c r="H659" s="10"/>
-    </row>
-    <row r="660" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E660" s="9"/>
-      <c r="F660" s="9"/>
-      <c r="G660" s="10"/>
-      <c r="H660" s="10"/>
-    </row>
-    <row r="661" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A641" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E641" s="11">
+        <v>5</v>
+      </c>
+      <c r="F641" s="9">
+        <v>2.4758</v>
+      </c>
+      <c r="G641" s="10">
+        <v>2.0068000000000001</v>
+      </c>
+      <c r="H641" s="10">
+        <v>2.9447000000000001</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A642" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E642" s="11">
+        <v>1</v>
+      </c>
+      <c r="F642" s="9">
+        <v>1.2532999999999999</v>
+      </c>
+      <c r="G642" s="10">
+        <v>9.7809999999999994E-2</v>
+      </c>
+      <c r="H642" s="10">
+        <v>1.5284</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A643" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E643" s="11">
+        <v>2</v>
+      </c>
+      <c r="F643" s="9">
+        <v>2.1786000000000003</v>
+      </c>
+      <c r="G643" s="10">
+        <v>1.4757</v>
+      </c>
+      <c r="H643" s="10">
+        <v>2.8815</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A644" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E644" s="11">
+        <v>3</v>
+      </c>
+      <c r="F644" s="9">
+        <v>3.7680999999999996</v>
+      </c>
+      <c r="G644" s="10">
+        <v>3.0912999999999999</v>
+      </c>
+      <c r="H644" s="10">
+        <v>4.4450000000000003</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A645" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E645" s="11">
+        <v>4</v>
+      </c>
+      <c r="F645" s="9">
+        <v>1.2323999999999999</v>
+      </c>
+      <c r="G645" s="10">
+        <v>8.8190000000000004E-2</v>
+      </c>
+      <c r="H645" s="10">
+        <v>1.583</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A646" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E646" s="11">
+        <v>5</v>
+      </c>
+      <c r="F646" s="33">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="G646" s="33">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="H646" s="33">
+        <v>8.7599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A647" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E647" s="11">
+        <v>1</v>
+      </c>
+      <c r="F647" s="33">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="G647" s="33">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="H647" s="33">
+        <v>8.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A648" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E648" s="11">
+        <v>2</v>
+      </c>
+      <c r="F648" s="33">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="G648" s="33">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="H648" s="33">
+        <v>0.1148</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A649" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E649" s="11">
+        <v>3</v>
+      </c>
+      <c r="F649" s="33">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="G649" s="33">
+        <v>4.65E-2</v>
+      </c>
+      <c r="H649" s="33">
+        <v>0.1227</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A650" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E650" s="11">
+        <v>4</v>
+      </c>
+      <c r="F650" s="33">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="G650" s="33">
+        <v>0</v>
+      </c>
+      <c r="H650" s="33">
+        <v>4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A651" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E651" s="11">
+        <v>5</v>
+      </c>
+      <c r="F651" s="33">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="G651" s="33">
+        <v>1.14E-2</v>
+      </c>
+      <c r="H651" s="33">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A652" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E652" s="11">
+        <v>1</v>
+      </c>
+      <c r="F652" s="33">
+        <v>0</v>
+      </c>
+      <c r="G652" s="33">
+        <v>0</v>
+      </c>
+      <c r="H652" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A653" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E653" s="11">
+        <v>2</v>
+      </c>
+      <c r="F653" s="33">
+        <v>0</v>
+      </c>
+      <c r="G653" s="33">
+        <v>0</v>
+      </c>
+      <c r="H653" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A654" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E654" s="11">
+        <v>3</v>
+      </c>
+      <c r="F654" s="33">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="G654" s="33">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="H654" s="33">
+        <v>9.0800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A655" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E655" s="11">
+        <v>4</v>
+      </c>
+      <c r="F655" s="33">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="G655" s="33">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H655" s="33">
+        <v>4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A656" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E656" s="11">
+        <v>5</v>
+      </c>
+      <c r="F656" s="33">
+        <v>0.745</v>
+      </c>
+      <c r="G656" s="33">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="H656" s="33">
+        <v>0.9224</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A657" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E657" s="11">
+        <v>1</v>
+      </c>
+      <c r="F657" s="33">
+        <v>0</v>
+      </c>
+      <c r="G657" s="33">
+        <v>0</v>
+      </c>
+      <c r="H657" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A658" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E658" s="11">
+        <v>2</v>
+      </c>
+      <c r="F658" s="33">
+        <v>0.1095</v>
+      </c>
+      <c r="G658" s="33">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="H658" s="33">
+        <v>0.16639999999999999</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A659" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E659" s="11">
+        <v>3</v>
+      </c>
+      <c r="F659" s="33">
+        <v>11.586</v>
+      </c>
+      <c r="G659" s="33">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="H659" s="33">
+        <v>13.122999999999999</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A660" s="4">
+        <v>530010</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E660" s="11">
+        <v>4</v>
+      </c>
+      <c r="F660" s="33">
+        <v>10.571999999999999</v>
+      </c>
+      <c r="G660" s="33">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="H660" s="33">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E661" s="9"/>
       <c r="F661" s="9"/>
       <c r="G661" s="10"/>
       <c r="H661" s="10"/>
     </row>
-    <row r="662" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E662" s="9"/>
       <c r="F662" s="9"/>
       <c r="G662" s="10"/>
       <c r="H662" s="10"/>
     </row>
-    <row r="663" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E663" s="9"/>
       <c r="F663" s="9"/>
       <c r="G663" s="10"/>
       <c r="H663" s="10"/>
     </row>
-    <row r="664" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E664" s="9"/>
       <c r="F664" s="9"/>
       <c r="G664" s="10"/>
       <c r="H664" s="10"/>
     </row>
-    <row r="665" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E665" s="9"/>
       <c r="F665" s="9"/>
       <c r="G665" s="10"/>
       <c r="H665" s="10"/>
     </row>
-    <row r="666" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E666" s="9"/>
       <c r="F666" s="9"/>
       <c r="G666" s="10"/>
       <c r="H666" s="10"/>
     </row>
-    <row r="667" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E667" s="9"/>
       <c r="F667" s="9"/>
       <c r="G667" s="10"/>
       <c r="H667" s="10"/>
     </row>
-    <row r="668" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E668" s="9"/>
       <c r="F668" s="9"/>
       <c r="G668" s="10"/>
       <c r="H668" s="10"/>
     </row>
-    <row r="669" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E669" s="9"/>
       <c r="F669" s="9"/>
       <c r="G669" s="10"/>
       <c r="H669" s="10"/>
     </row>
-    <row r="670" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E670" s="9"/>
       <c r="F670" s="9"/>
       <c r="G670" s="10"/>
       <c r="H670" s="10"/>
     </row>
-    <row r="671" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E671" s="9"/>
       <c r="F671" s="9"/>
       <c r="G671" s="10"/>
       <c r="H671" s="10"/>
     </row>
-    <row r="672" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E672" s="9"/>
       <c r="F672" s="9"/>
       <c r="G672" s="10"/>
@@ -34792,8 +35195,8 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:A125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/01_dados/cobertura sb.xlsx
+++ b/01_dados/cobertura sb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/saude_bucal/01_dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D838DAA9-7914-4010-93BD-3E9D5CE8B2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8BCF14D-825E-43F6-A518-F8EC394992AB}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D838DAA9-7914-4010-93BD-3E9D5CE8B2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCAE1E39-B7C0-4D81-BD91-BE74610A3AE4}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cobertura" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cobertura!$A$1:$H$513</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Produção normativa'!$A$1:$H$640</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Produção normativa'!$A$1:$H$660</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="52">
   <si>
     <t>ibge</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Geral</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Brasil</t>
@@ -549,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H984"/>
   <sheetViews>
-    <sheetView topLeftCell="A489" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A498" sqref="A498"/>
     </sheetView>
   </sheetViews>
@@ -13492,7 +13489,7 @@
         <v>530010</v>
       </c>
       <c r="B498" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>9</v>
@@ -13518,7 +13515,7 @@
         <v>530010</v>
       </c>
       <c r="B499" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>9</v>
@@ -13544,7 +13541,7 @@
         <v>530010</v>
       </c>
       <c r="B500" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>9</v>
@@ -13570,7 +13567,7 @@
         <v>530010</v>
       </c>
       <c r="B501" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>9</v>
@@ -13596,7 +13593,7 @@
         <v>530010</v>
       </c>
       <c r="B502" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>11</v>
@@ -13622,7 +13619,7 @@
         <v>530010</v>
       </c>
       <c r="B503" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>11</v>
@@ -13648,7 +13645,7 @@
         <v>530010</v>
       </c>
       <c r="B504" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>11</v>
@@ -13674,7 +13671,7 @@
         <v>530010</v>
       </c>
       <c r="B505" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>11</v>
@@ -13700,7 +13697,7 @@
         <v>530010</v>
       </c>
       <c r="B506" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>12</v>
@@ -13726,7 +13723,7 @@
         <v>530010</v>
       </c>
       <c r="B507" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>12</v>
@@ -13752,7 +13749,7 @@
         <v>530010</v>
       </c>
       <c r="B508" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>12</v>
@@ -13778,7 +13775,7 @@
         <v>530010</v>
       </c>
       <c r="B509" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>12</v>
@@ -13804,7 +13801,7 @@
         <v>530010</v>
       </c>
       <c r="B510" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>13</v>
@@ -13830,7 +13827,7 @@
         <v>530010</v>
       </c>
       <c r="B511" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>13</v>
@@ -13856,7 +13853,7 @@
         <v>530010</v>
       </c>
       <c r="B512" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>13</v>
@@ -13882,7 +13879,7 @@
         <v>530010</v>
       </c>
       <c r="B513" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>13</v>
@@ -15330,8 +15327,8 @@
   </sheetPr>
   <dimension ref="A1:H1107"/>
   <sheetViews>
-    <sheetView topLeftCell="A634" workbookViewId="0">
-      <selection activeCell="F641" sqref="F641:H644"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15357,7 +15354,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>6</v>
@@ -20322,14 +20319,14 @@
       <c r="E192" s="11">
         <v>1</v>
       </c>
-      <c r="F192" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G192" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H192" s="15" t="s">
-        <v>48</v>
+      <c r="F192" s="14">
+        <v>0</v>
+      </c>
+      <c r="G192" s="15">
+        <v>0</v>
+      </c>
+      <c r="H192" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31462,10 +31459,10 @@
     </row>
     <row r="621" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>9</v>
@@ -31488,10 +31485,10 @@
     </row>
     <row r="622" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>9</v>
@@ -31514,10 +31511,10 @@
     </row>
     <row r="623" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>9</v>
@@ -31540,10 +31537,10 @@
     </row>
     <row r="624" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>9</v>
@@ -31566,10 +31563,10 @@
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>9</v>
@@ -31592,10 +31589,10 @@
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>11</v>
@@ -31618,10 +31615,10 @@
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>11</v>
@@ -31644,10 +31641,10 @@
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>11</v>
@@ -31670,10 +31667,10 @@
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>11</v>
@@ -31696,10 +31693,10 @@
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>11</v>
@@ -31722,10 +31719,10 @@
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>12</v>
@@ -31748,10 +31745,10 @@
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>12</v>
@@ -31774,10 +31771,10 @@
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>12</v>
@@ -31800,10 +31797,10 @@
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>12</v>
@@ -31826,10 +31823,10 @@
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>12</v>
@@ -31852,10 +31849,10 @@
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>13</v>
@@ -31878,10 +31875,10 @@
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>13</v>
@@ -31904,10 +31901,10 @@
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>13</v>
@@ -31930,10 +31927,10 @@
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>13</v>
@@ -31956,10 +31953,10 @@
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>13</v>
@@ -31985,7 +31982,7 @@
         <v>530010</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>9</v>
@@ -32011,7 +32008,7 @@
         <v>530010</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>9</v>
@@ -32037,7 +32034,7 @@
         <v>530010</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>9</v>
@@ -32063,7 +32060,7 @@
         <v>530010</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>9</v>
@@ -32089,7 +32086,7 @@
         <v>530010</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>9</v>
@@ -32115,7 +32112,7 @@
         <v>530010</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>11</v>
@@ -32141,7 +32138,7 @@
         <v>530010</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>11</v>
@@ -32167,7 +32164,7 @@
         <v>530010</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>11</v>
@@ -32193,7 +32190,7 @@
         <v>530010</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>11</v>
@@ -32219,7 +32216,7 @@
         <v>530010</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>11</v>
@@ -32245,7 +32242,7 @@
         <v>530010</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>12</v>
@@ -32271,7 +32268,7 @@
         <v>530010</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>12</v>
@@ -32297,7 +32294,7 @@
         <v>530010</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>12</v>
@@ -32323,7 +32320,7 @@
         <v>530010</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>12</v>
@@ -32349,7 +32346,7 @@
         <v>530010</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>12</v>
@@ -32375,7 +32372,7 @@
         <v>530010</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>13</v>
@@ -32401,7 +32398,7 @@
         <v>530010</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>13</v>
@@ -32427,7 +32424,7 @@
         <v>530010</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>13</v>
@@ -32453,7 +32450,7 @@
         <v>530010</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>13</v>
@@ -32479,7 +32476,7 @@
         <v>530010</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>13</v>
@@ -35183,7 +35180,7 @@
       <c r="H1107" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H640" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:H660" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -35195,8 +35192,8 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35215,7 +35212,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36746,10 +36743,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -36758,10 +36755,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
@@ -36770,10 +36767,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
@@ -36782,10 +36779,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
